--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:39:24+00:00</t>
+    <t>2023-02-09T10:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:40:09+00:00</t>
+    <t>2023-02-09T13:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T13:08:40+00:00</t>
+    <t>2023-02-09T13:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T13:39:21+00:00</t>
+    <t>2023-02-09T15:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:03:43+00:00</t>
+    <t>2023-02-09T15:04:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:04:10+00:00</t>
+    <t>2023-02-10T13:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -481,41 +481,508 @@
     <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PTH-3</t>
+  </si>
+  <si>
+    <t>CarePlan.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
 </t>
   </si>
   <si>
-    <t>openAtEnd</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PTH-3</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier:CPID</t>
-  </si>
-  <si>
-    <t>CPID</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier:CPID.id</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier.id</t>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>CarePlan.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>CarePlan.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>Fulfills CarePlan</t>
+  </si>
+  <si>
+    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
+  </si>
+  <si>
+    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>CarePlan.replaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supersedes
+</t>
+  </si>
+  <si>
+    <t>CarePlan replaced by this CarePlan</t>
+  </si>
+  <si>
+    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
+  </si>
+  <si>
+    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
+  </si>
+  <si>
+    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>CarePlan.partOf</t>
+  </si>
+  <si>
+    <t>Part of referenced CarePlan</t>
+  </si>
+  <si>
+    <t>A larger care plan of which this particular care plan is a component or step.</t>
+  </si>
+  <si>
+    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
+  </si>
+  <si>
+    <t>CarePlan.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
+  </si>
+  <si>
+    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
+This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
+  </si>
+  <si>
+    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status {uses different ValueSet}</t>
+  </si>
+  <si>
+    <t>.statusCode planned = new active = active completed = completed</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PTH-5</t>
+  </si>
+  <si>
+    <t>CarePlan.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | order | option</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
+  </si>
+  <si>
+    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>CarePlan.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type of plan</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
+  </si>
+  <si>
+    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
+  </si>
+  <si>
+    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>CarePlan.title</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
+    <t>Human-friendly name for the care plan</t>
+  </si>
+  <si>
+    <t>Human-friendly name for the care plan.</t>
+  </si>
+  <si>
+    <t>CarePlan.description</t>
+  </si>
+  <si>
+    <t>Summary of nature of plan</t>
+  </si>
+  <si>
+    <t>A description of the scope and nature of the plan.</t>
+  </si>
+  <si>
+    <t>Provides more detail than conveyed by category.</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>Who the care plan is for</t>
+  </si>
+  <si>
+    <t>Identifies the patient or group whose intended care is described by the plan.</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PAT].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>CarePlan.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which this CarePlan was created or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. CarePlan activities conducted as a result of the care plan may well occur as part of other encounters.</t>
+  </si>
+  <si>
+    <t>Request.context</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Associated PV1</t>
+  </si>
+  <si>
+    <t>CarePlan.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period plan covers</t>
+  </si>
+  <si>
+    <t>Indicates when the plan did (or is intended to) come into effect and end.</t>
+  </si>
+  <si>
+    <t>Any activities scheduled as part of the plan should be constrained to the specified period regardless of whether the activities are planned within a single encounter/episode or across multiple encounters/episodes (e.g. the longitudinal management of a chronic condition).</t>
+  </si>
+  <si>
+    <t>Allows tracking what plan(s) are in effect at a particular time.</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>GOL-7 / GOL-8</t>
+  </si>
+  <si>
+    <t>CarePlan.created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">authoredOn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date record was first recorded</t>
+  </si>
+  <si>
+    <t>Represents when this particular CarePlan record was created in the system, which is often a system-generated date.</t>
+  </si>
+  <si>
+    <t>Request.authoredOn</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>CarePlan.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Device|RelatedPerson|Organization|CareTeam)
+</t>
+  </si>
+  <si>
+    <t>Who is the designated responsible party</t>
+  </si>
+  <si>
+    <t>When populated, the author is responsible for the care plan.  The care plan is attributed to the author.</t>
+  </si>
+  <si>
+    <t>The author may also be a contributor.  For example, an organization can be an author, but not listed as a contributor.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>CarePlan.contributor</t>
+  </si>
+  <si>
+    <t>Who provided the content of the care plan</t>
+  </si>
+  <si>
+    <t>Identifies the individual(s) or organization who provided the contents of the care plan.</t>
+  </si>
+  <si>
+    <t>Collaborative care plans may have multiple contributors.</t>
+  </si>
+  <si>
+    <t>CarePlan.careTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CareTeam)
+</t>
+  </si>
+  <si>
+    <t>Who's involved in plan?</t>
+  </si>
+  <si>
+    <t>Identifies all people and organizations who are expected to be involved in the care envisioned by this plan.</t>
+  </si>
+  <si>
+    <t>Allows representation of care teams, helps scope care plan.  In some cases may be a determiner of access permissions.</t>
+  </si>
+  <si>
+    <t>Request.performer {similar but does not entail CareTeam}</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>CarePlan.addresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition)
+</t>
+  </si>
+  <si>
+    <t>Health issues this plan addresses</t>
+  </si>
+  <si>
+    <t>Identifies the conditions/problems/concerns/diagnoses/etc. whose management and/or mitigation are handled by this plan.</t>
+  </si>
+  <si>
+    <t>When the diagnosis is related to an allergy or intolerance, the Condition and AllergyIntolerance resources can both be used. However, to be actionable for decision support, using Condition alone is not sufficient as the allergy or intolerance condition needs to be represented as an AllergyIntolerance.</t>
+  </si>
+  <si>
+    <t>Links plan to the conditions it manages.  The element can identify risks addressed by the plan as well as active conditions.  (The Condition resource can include things like "at risk for hypertension" or "fall risk".)  Also scopes plans - multiple plans may exist addressing different concerns.</t>
+  </si>
+  <si>
+    <t>Request.reasonReference</t>
+  </si>
+  <si>
+    <t>.actRelationship[typeCode=SUBJ].target[classCode=CONC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>PRB-4</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Information considered as part of plan</t>
+  </si>
+  <si>
+    <t>Identifies portions of the patient's record that specifically influenced the formation of the plan.  These might include comorbidities, recent procedures, limitations, recent assessments, etc.</t>
+  </si>
+  <si>
+    <t>Use "concern" to identify specific conditions addressed by the care plan.</t>
+  </si>
+  <si>
+    <t>Identifies barriers and other considerations associated with the care plan.</t>
+  </si>
+  <si>
+    <t>Request.supportingInfo</t>
+  </si>
+  <si>
+    <t>CarePlan.goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Goal)
+</t>
+  </si>
+  <si>
+    <t>Desired outcome of plan</t>
+  </si>
+  <si>
+    <t>Describes the intended objective(s) of carrying out the care plan.</t>
+  </si>
+  <si>
+    <t>Goal can be achieving a particular change or merely maintaining a current state or even slowing a decline.</t>
+  </si>
+  <si>
+    <t>Provides context for plan.  Allows plan effectiveness to be evaluated by clinicians.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode&lt;=OBJ].</t>
+  </si>
+  <si>
+    <t>GOL.1</t>
+  </si>
+  <si>
+    <t>CarePlan.activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Action to occur as part of plan</t>
+  </si>
+  <si>
+    <t>Identifies a planned action to occur as part of the plan.  For example, a medication to be used, lab tests to perform, self-monitoring, education, etc.</t>
+  </si>
+  <si>
+    <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
+  </si>
+  <si>
+    <t>cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>{no mapping
+NOTE: This is a list of contained Request-Event tuples!}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].target</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.id</t>
+  </si>
+  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -528,877 +995,155 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>CarePlan.identifier:CPID.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier.extension</t>
+    <t>CarePlan.activity.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.outcomeCodeableConcept</t>
+  </si>
+  <si>
+    <t>Results of the activity</t>
+  </si>
+  <si>
+    <t>Identifies the outcome at the point when the status of the activity is assessed.  For example, the outcome of an education activity could be patient understands (or not).</t>
+  </si>
+  <si>
+    <t>Note that this should not duplicate the activity status (e.g. completed or in progress).</t>
+  </si>
+  <si>
+    <t>Identifies the results of the activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.outcomeReference</t>
+  </si>
+  <si>
+    <t>Appointment, Encounter, Procedure, etc.</t>
+  </si>
+  <si>
+    <t>Details of the outcome or action resulting from the activity.  The reference to an "event" resource, such as Procedure or Encounter or Observation, is the result/outcome of the activity itself.  The activity can be conveyed using CarePlan.activity.detail OR using the CarePlan.activity.reference (a reference to a “request” resource).</t>
+  </si>
+  <si>
+    <t>The activity outcome is independent of the outcome of the related goal(s).  For example, if the goal is to achieve a target body weight of 150 lbs and an activity is defined to diet, then the activity outcome could be calories consumed whereas the goal outcome is an observation for the actual body weight measured.</t>
+  </si>
+  <si>
+    <t>Links plan to resulting actions.</t>
+  </si>
+  <si>
+    <t>{Event that is outcome of Request in activity.reference}</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=FLFS].source</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the activity status/progress</t>
+  </si>
+  <si>
+    <t>Notes about the adherence/status/progress of the activity.</t>
+  </si>
+  <si>
+    <t>This element should NOT be used to describe the activity to be performed - that occurs either within the resource pointed to by activity.detail.reference or in activity.detail.description.</t>
+  </si>
+  <si>
+    <t>Can be used to capture information about adherence, progress, concerns, etc.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
+  </si>
+  <si>
+    <t>NTE?</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Appointment|CommunicationRequest|DeviceRequest|MedicationRequest|NutritionOrder|Task|ServiceRequest|VisionPrescription|RequestGroup)
+</t>
+  </si>
+  <si>
+    <t>Activity details defined in specific resource</t>
+  </si>
+  <si>
+    <t>The details of the proposed activity represented in a specific resource.</t>
+  </si>
+  <si>
+    <t>Standard extension exists ([resource-pertainsToGoal](http://hl7.org/fhir/R4/extension-resource-pertainstogoal.html)) that allows goals to be referenced from any of the referenced resources in CarePlan.activity.reference.  +The goal should be visible when the resource referenced by CarePlan.activity.reference is viewed independently from the CarePlan.  Requests that are pointed to by a CarePlan using this element should *not* point to this CarePlan using the "basedOn" element.  i.e. Requests that are part of a CarePlan are not "based on" the CarePlan.</t>
+  </si>
+  <si>
+    <t>Details in a form consistent with other applications and contexts of use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpl-3
+</t>
+  </si>
+  <si>
+    <t>{Request that resulted in Event in activity.actionResulting}</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail</t>
+  </si>
+  <si>
+    <t>In-line definition of activity</t>
+  </si>
+  <si>
+    <t>A simple summary of a planned activity suitable for a general care plan system (e.g. form driven) that doesn't know about specific resources such as procedure etc.</t>
+  </si>
+  <si>
+    <t>Details in a simple form for generic care plan systems.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP, subsetCode=SUMM].target</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier:CPID.use</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier:CPID.type</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier:CPID.system</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/cpid</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier:CPID.value</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier:CPID.period</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier:CPID.assigner</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>CarePlan.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>CarePlan.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>CarePlan.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan)
-</t>
-  </si>
-  <si>
-    <t>Fulfills CarePlan</t>
-  </si>
-  <si>
-    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
-  </si>
-  <si>
-    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>CarePlan.replaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supersedes
-</t>
-  </si>
-  <si>
-    <t>CarePlan replaced by this CarePlan</t>
-  </si>
-  <si>
-    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>CarePlan.partOf</t>
-  </si>
-  <si>
-    <t>Part of referenced CarePlan</t>
-  </si>
-  <si>
-    <t>A larger care plan of which this particular care plan is a component or step.</t>
-  </si>
-  <si>
-    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
-  </si>
-  <si>
-    <t>CarePlan.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
-  </si>
-  <si>
-    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
-This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
-  </si>
-  <si>
-    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status {uses different ValueSet}</t>
-  </si>
-  <si>
-    <t>.statusCode planned = new active = active completed = completed</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>PTH-5</t>
-  </si>
-  <si>
-    <t>CarePlan.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | order | option</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
-  </si>
-  <si>
-    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>CarePlan.category</t>
-  </si>
-  <si>
-    <t>Type of plan</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
-  </si>
-  <si>
-    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
-  </si>
-  <si>
-    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>CarePlan.title</t>
-  </si>
-  <si>
-    <t>Human-friendly name for the care plan</t>
-  </si>
-  <si>
-    <t>Human-friendly name for the care plan.</t>
-  </si>
-  <si>
-    <t>CarePlan.description</t>
-  </si>
-  <si>
-    <t>Summary of nature of plan</t>
-  </si>
-  <si>
-    <t>A description of the scope and nature of the plan.</t>
-  </si>
-  <si>
-    <t>Provides more detail than conveyed by category.</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>CarePlan.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>Who the care plan is for</t>
-  </si>
-  <si>
-    <t>Identifies the patient or group whose intended care is described by the plan.</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PAT].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>CarePlan.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which this CarePlan was created or to which the creation of this record is tightly associated.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. CarePlan activities conducted as a result of the care plan may well occur as part of other encounters.</t>
-  </si>
-  <si>
-    <t>Request.context</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Associated PV1</t>
-  </si>
-  <si>
-    <t>CarePlan.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timing
-</t>
-  </si>
-  <si>
-    <t>Time period plan covers</t>
-  </si>
-  <si>
-    <t>Indicates when the plan did (or is intended to) come into effect and end.</t>
-  </si>
-  <si>
-    <t>Any activities scheduled as part of the plan should be constrained to the specified period regardless of whether the activities are planned within a single encounter/episode or across multiple encounters/episodes (e.g. the longitudinal management of a chronic condition).</t>
-  </si>
-  <si>
-    <t>Allows tracking what plan(s) are in effect at a particular time.</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>GOL-7 / GOL-8</t>
-  </si>
-  <si>
-    <t>CarePlan.period.id</t>
-  </si>
-  <si>
-    <t>CarePlan.period.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Starting time with inclusive boundary</t>
-  </si>
-  <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per-1
-</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>CarePlan.period.end</t>
-  </si>
-  <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>./high</t>
-  </si>
-  <si>
-    <t>DR.2</t>
-  </si>
-  <si>
-    <t>CarePlan.created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authoredOn
-</t>
-  </si>
-  <si>
-    <t>Date record was first recorded</t>
-  </si>
-  <si>
-    <t>Represents when this particular CarePlan record was created in the system, which is often a system-generated date.</t>
-  </si>
-  <si>
-    <t>Request.authoredOn</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>CarePlan.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Device|RelatedPerson|Organization|CareTeam)
-</t>
-  </si>
-  <si>
-    <t>Who is the designated responsible party</t>
-  </si>
-  <si>
-    <t>When populated, the author is responsible for the care plan.  The care plan is attributed to the author.</t>
-  </si>
-  <si>
-    <t>The author may also be a contributor.  For example, an organization can be an author, but not listed as a contributor.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>CarePlan.contributor</t>
-  </si>
-  <si>
-    <t>Who provided the content of the care plan</t>
-  </si>
-  <si>
-    <t>Identifies the individual(s) or organization who provided the contents of the care plan.</t>
-  </si>
-  <si>
-    <t>Collaborative care plans may have multiple contributors.</t>
-  </si>
-  <si>
-    <t>CarePlan.careTeam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CareTeam)
-</t>
-  </si>
-  <si>
-    <t>Who's involved in plan?</t>
-  </si>
-  <si>
-    <t>Identifies all people and organizations who are expected to be involved in the care envisioned by this plan.</t>
-  </si>
-  <si>
-    <t>Allows representation of care teams, helps scope care plan.  In some cases may be a determiner of access permissions.</t>
-  </si>
-  <si>
-    <t>Request.performer {similar but does not entail CareTeam}</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>CarePlan.addresses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition)
-</t>
-  </si>
-  <si>
-    <t>Health issues this plan addresses</t>
-  </si>
-  <si>
-    <t>Identifies the conditions/problems/concerns/diagnoses/etc. whose management and/or mitigation are handled by this plan.</t>
-  </si>
-  <si>
-    <t>When the diagnosis is related to an allergy or intolerance, the Condition and AllergyIntolerance resources can both be used. However, to be actionable for decision support, using Condition alone is not sufficient as the allergy or intolerance condition needs to be represented as an AllergyIntolerance.</t>
-  </si>
-  <si>
-    <t>Links plan to the conditions it manages.  The element can identify risks addressed by the plan as well as active conditions.  (The Condition resource can include things like "at risk for hypertension" or "fall risk".)  Also scopes plans - multiple plans may exist addressing different concerns.</t>
-  </si>
-  <si>
-    <t>Request.reasonReference</t>
-  </si>
-  <si>
-    <t>.actRelationship[typeCode=SUBJ].target[classCode=CONC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>PRB-4</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Information considered as part of plan</t>
-  </si>
-  <si>
-    <t>Identifies portions of the patient's record that specifically influenced the formation of the plan.  These might include comorbidities, recent procedures, limitations, recent assessments, etc.</t>
-  </si>
-  <si>
-    <t>Use "concern" to identify specific conditions addressed by the care plan.</t>
-  </si>
-  <si>
-    <t>Identifies barriers and other considerations associated with the care plan.</t>
-  </si>
-  <si>
-    <t>Request.supportingInfo</t>
-  </si>
-  <si>
-    <t>CarePlan.goal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Goal)
-</t>
-  </si>
-  <si>
-    <t>Desired outcome of plan</t>
-  </si>
-  <si>
-    <t>Describes the intended objective(s) of carrying out the care plan.</t>
-  </si>
-  <si>
-    <t>Goal can be achieving a particular change or merely maintaining a current state or even slowing a decline.</t>
-  </si>
-  <si>
-    <t>Provides context for plan.  Allows plan effectiveness to be evaluated by clinicians.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode&lt;=OBJ].</t>
-  </si>
-  <si>
-    <t>GOL.1</t>
-  </si>
-  <si>
-    <t>CarePlan.activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Action to occur as part of plan</t>
-  </si>
-  <si>
-    <t>Identifies a planned action to occur as part of the plan.  For example, a medication to be used, lab tests to perform, self-monitoring, education, etc.</t>
-  </si>
-  <si>
-    <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
-  </si>
-  <si>
-    <t>cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
-    <t>{no mapping
-NOTE: This is a list of contained Request-Event tuples!}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.id</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.outcomeCodeableConcept</t>
-  </si>
-  <si>
-    <t>Results of the activity</t>
-  </si>
-  <si>
-    <t>Identifies the outcome at the point when the status of the activity is assessed.  For example, the outcome of an education activity could be patient understands (or not).</t>
-  </si>
-  <si>
-    <t>Note that this should not duplicate the activity status (e.g. completed or in progress).</t>
-  </si>
-  <si>
-    <t>Identifies the results of the activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.outcomeReference</t>
-  </si>
-  <si>
-    <t>Appointment, Encounter, Procedure, etc.</t>
-  </si>
-  <si>
-    <t>Details of the outcome or action resulting from the activity.  The reference to an "event" resource, such as Procedure or Encounter or Observation, is the result/outcome of the activity itself.  The activity can be conveyed using CarePlan.activity.detail OR using the CarePlan.activity.reference (a reference to a “request” resource).</t>
-  </si>
-  <si>
-    <t>The activity outcome is independent of the outcome of the related goal(s).  For example, if the goal is to achieve a target body weight of 150 lbs and an activity is defined to diet, then the activity outcome could be calories consumed whereas the goal outcome is an observation for the actual body weight measured.</t>
-  </si>
-  <si>
-    <t>Links plan to resulting actions.</t>
-  </si>
-  <si>
-    <t>{Event that is outcome of Request in activity.reference}</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=FLFS].source</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments about the activity status/progress</t>
-  </si>
-  <si>
-    <t>Notes about the adherence/status/progress of the activity.</t>
-  </si>
-  <si>
-    <t>This element should NOT be used to describe the activity to be performed - that occurs either within the resource pointed to by activity.detail.reference or in activity.detail.description.</t>
-  </si>
-  <si>
-    <t>Can be used to capture information about adherence, progress, concerns, etc.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
-  </si>
-  <si>
-    <t>NTE?</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Appointment|CommunicationRequest|DeviceRequest|MedicationRequest|NutritionOrder|Task|ServiceRequest|VisionPrescription|RequestGroup)
-</t>
-  </si>
-  <si>
-    <t>Activity details defined in specific resource</t>
-  </si>
-  <si>
-    <t>The details of the proposed activity represented in a specific resource.</t>
-  </si>
-  <si>
-    <t>Standard extension exists ([resource-pertainsToGoal](http://hl7.org/fhir/R4/extension-resource-pertainstogoal.html)) that allows goals to be referenced from any of the referenced resources in CarePlan.activity.reference.  -The goal should be visible when the resource referenced by CarePlan.activity.reference is viewed independently from the CarePlan.  Requests that are pointed to by a CarePlan using this element should *not* point to this CarePlan using the "basedOn" element.  i.e. Requests that are part of a CarePlan are not "based on" the CarePlan.</t>
-  </si>
-  <si>
-    <t>Details in a form consistent with other applications and contexts of use.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpl-3
-</t>
-  </si>
-  <si>
-    <t>{Request that resulted in Event in activity.actionResulting}</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail</t>
-  </si>
-  <si>
-    <t>In-line definition of activity</t>
-  </si>
-  <si>
-    <t>A simple summary of a planned activity suitable for a general care plan system (e.g. form driven) that doesn't know about specific resources such as procedure etc.</t>
-  </si>
-  <si>
-    <t>Details in a simple form for generic care plan systems.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP, subsetCode=SUMM].target</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.id</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.extension:artRegimenLine</t>
@@ -1715,76 +1460,6 @@
   </si>
   <si>
     <t>productCodeableConcept</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.product[x].id</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.product[x].extension</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.product[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.text</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.product[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.dailyAmount</t>
@@ -2157,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN80"/>
+  <dimension ref="A1:AN63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2166,7 +1841,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.95703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.40625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.3359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2185,7 +1860,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -2194,7 +1869,7 @@
     <col min="26" max="26" width="80.41796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="42.671875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3366,7 +3041,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -3430,14 +3105,16 @@
         <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>144</v>
@@ -3455,37 +3132,35 @@
         <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -3497,20 +3172,16 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3558,7 +3229,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3573,24 +3244,24 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3601,7 +3272,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
@@ -3610,10 +3281,10 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>161</v>
@@ -3621,7 +3292,9 @@
       <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3670,25 +3343,25 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
@@ -3702,11 +3375,11 @@
         <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3722,21 +3395,21 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3772,19 +3445,19 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3796,13 +3469,13 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -3816,30 +3489,30 @@
         <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>174</v>
@@ -3876,13 +3549,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3900,13 +3573,13 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
@@ -3915,24 +3588,24 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3943,7 +3616,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3955,20 +3628,18 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3992,13 +3663,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -4016,13 +3687,13 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
@@ -4034,21 +3705,21 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4065,38 +3736,38 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>80</v>
@@ -4108,13 +3779,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -4132,10 +3803,10 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>87</v>
@@ -4147,24 +3818,24 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4181,24 +3852,26 @@
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4210,7 +3883,7 @@
         <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>80</v>
@@ -4222,13 +3895,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -4246,10 +3919,10 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>87</v>
@@ -4261,24 +3934,24 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4289,7 +3962,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -4301,16 +3974,20 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4334,13 +4011,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4358,13 +4035,13 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
@@ -4376,21 +4053,21 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4413,17 +4090,15 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4472,7 +4147,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4490,21 +4165,21 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>231</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4515,7 +4190,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4527,16 +4202,18 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4584,13 +4261,13 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
@@ -4599,13 +4276,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4613,21 +4290,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4639,17 +4316,15 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4698,13 +4373,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4713,35 +4388,35 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4753,18 +4428,18 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4812,13 +4487,13 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -4827,35 +4502,35 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4867,19 +4542,19 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4928,13 +4603,13 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
@@ -4943,35 +4618,35 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4983,17 +4658,15 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5042,13 +4715,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -5057,13 +4730,13 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5071,10 +4744,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5082,7 +4755,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
@@ -5091,26 +4764,24 @@
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>265</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5134,13 +4805,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -5158,10 +4829,10 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>87</v>
@@ -5173,24 +4844,24 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5198,35 +4869,33 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5250,13 +4919,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5274,13 +4943,13 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
@@ -5289,7 +4958,7 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5303,10 +4972,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5326,22 +4995,20 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5366,13 +5033,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5390,7 +5057,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5405,13 +5072,13 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5419,10 +5086,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5433,7 +5100,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5445,16 +5112,20 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5502,13 +5173,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5517,24 +5188,24 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5545,7 +5216,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5554,20 +5225,22 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>160</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5616,13 +5289,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5631,13 +5304,13 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5645,21 +5318,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5668,19 +5341,23 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5728,13 +5405,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -5743,24 +5420,24 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5768,10 +5445,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5780,21 +5457,21 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5842,43 +5519,43 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>306</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5894,23 +5571,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5958,7 +5631,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5970,38 +5643,38 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -6013,15 +5686,17 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6070,25 +5745,25 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>163</v>
+        <v>316</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6099,14 +5774,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>132</v>
+        <v>318</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6119,24 +5794,26 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6172,19 +5849,19 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>171</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6202,7 +5879,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6213,10 +5890,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6224,10 +5901,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6236,19 +5913,19 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6274,13 +5951,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6298,16 +5975,16 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>99</v>
@@ -6316,21 +5993,21 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6341,7 +6018,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6350,27 +6027,27 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q37" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6414,50 +6091,50 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6466,19 +6143,23 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6526,13 +6207,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6541,24 +6222,24 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6578,21 +6259,23 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6640,7 +6323,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6649,19 +6332,19 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6669,10 +6352,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6680,10 +6363,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6695,18 +6378,18 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6754,16 +6437,16 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>99</v>
@@ -6772,7 +6455,7 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6783,10 +6466,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6797,7 +6480,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6809,18 +6492,16 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>362</v>
+        <v>213</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6868,28 +6549,28 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6897,10 +6578,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6908,7 +6589,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6920,23 +6601,19 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>369</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6972,19 +6649,17 @@
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6996,38 +6671,40 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -7039,20 +6716,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7100,7 +6773,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7109,13 +6782,13 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -7129,14 +6802,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7149,25 +6822,25 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>386</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>387</v>
+        <v>319</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>388</v>
+        <v>320</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>389</v>
+        <v>136</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>390</v>
+        <v>142</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7216,7 +6889,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7228,27 +6901,27 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>391</v>
+        <v>130</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7256,11 +6929,11 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7271,17 +6944,17 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>394</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7291,7 +6964,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -7306,13 +6979,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7330,25 +7003,25 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>398</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7359,10 +7032,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7373,7 +7046,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7385,16 +7058,18 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>160</v>
+        <v>377</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>162</v>
+        <v>378</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7442,25 +7117,25 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>163</v>
+        <v>376</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7471,14 +7146,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7497,18 +7172,20 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>167</v>
+        <v>381</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7556,7 +7233,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7568,13 +7245,13 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7585,45 +7262,45 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>136</v>
+        <v>385</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>142</v>
+        <v>386</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7648,13 +7325,11 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7672,39 +7347,39 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>130</v>
+        <v>389</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7727,16 +7402,16 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7762,13 +7437,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7786,7 +7461,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7801,7 +7476,7 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7815,10 +7490,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7841,20 +7516,18 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7902,7 +7575,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7917,10 +7590,10 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7931,10 +7604,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7957,19 +7630,17 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>422</v>
+        <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8018,7 +7689,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8036,21 +7707,21 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8058,7 +7729,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -8067,25 +7738,25 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>430</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8110,13 +7781,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8134,39 +7805,39 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8174,7 +7845,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -8189,18 +7860,18 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>203</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8248,7 +7919,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8257,16 +7928,16 @@
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8277,10 +7948,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8297,26 +7968,32 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>160</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>161</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="R54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8360,7 +8037,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>163</v>
+        <v>422</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8372,13 +8049,13 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>164</v>
+        <v>430</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8389,10 +8066,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8400,11 +8077,11 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8415,16 +8092,18 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>432</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8460,59 +8139,59 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>171</v>
+        <v>431</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
@@ -8527,16 +8206,20 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8584,43 +8267,43 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>171</v>
+        <v>437</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8633,25 +8316,25 @@
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>446</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>136</v>
+        <v>449</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>142</v>
+        <v>442</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8700,7 +8383,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8712,27 +8395,27 @@
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>130</v>
+        <v>451</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8755,18 +8438,16 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>455</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8775,46 +8456,44 @@
         <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="T58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y58" t="s" s="2">
+      <c r="Z58" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Z58" t="s" s="2">
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AA58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8832,32 +8511,34 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8869,18 +8550,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>461</v>
+        <v>203</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>234</v>
+        <v>454</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>463</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8904,13 +8583,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8928,13 +8607,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8943,16 +8622,16 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>237</v>
+        <v>460</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60">
@@ -8964,14 +8643,14 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8983,19 +8662,17 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>101</v>
+        <v>466</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>239</v>
+        <v>467</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9050,7 +8727,7 @@
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -9059,24 +8736,24 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>237</v>
+        <v>470</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9084,7 +8761,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>87</v>
@@ -9099,20 +8776,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>185</v>
+        <v>466</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9136,11 +8809,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9158,7 +8833,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9173,24 +8848,24 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9201,7 +8876,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9213,17 +8888,15 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9248,13 +8921,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9272,13 +8945,13 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
@@ -9287,24 +8960,24 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9327,18 +9000,18 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9386,7 +9059,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9401,1958 +9074,16 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>374</v>
+        <v>485</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q67" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="D72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>428</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:19:16+00:00</t>
+    <t>2023-02-10T13:19:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
